--- a/data/컬럼정의서2.xlsx
+++ b/data/컬럼정의서2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\DS Projects\miniproject1-nycflights\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\flights-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20360" windowHeight="8810"/>
   </bookViews>
   <sheets>
     <sheet name="flights" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,7 +141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -160,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -203,7 +203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -246,7 +246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -270,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -289,7 +289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -313,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -332,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -351,7 +351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -375,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -394,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -413,7 +413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -437,7 +437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -456,7 +456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -480,7 +480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -499,7 +499,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -534,7 +534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -553,7 +553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -591,7 +591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -607,7 +607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -626,7 +626,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -645,7 +645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -675,7 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -694,7 +694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -713,7 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -732,7 +732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -751,7 +751,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -847,7 +847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -866,7 +866,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -904,7 +904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -923,7 +923,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -961,7 +961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -980,7 +980,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -999,7 +999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1159,7 +1159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1222,7 +1222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1238,6 +1238,153 @@
   <si>
     <t>결측값이 많음</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_time</t>
+  </si>
+  <si>
+    <t>sched_dep_time</t>
+  </si>
+  <si>
+    <t>dep_delay</t>
+  </si>
+  <si>
+    <t>arr_time</t>
+  </si>
+  <si>
+    <t>sched_arr_time</t>
+  </si>
+  <si>
+    <t>arr_delay</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>tailnum</t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>air_time</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>출발 연도</t>
+  </si>
+  <si>
+    <t>출발 월</t>
+  </si>
+  <si>
+    <t>출발 일</t>
+  </si>
+  <si>
+    <t>실제 출발 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>예정 출발 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>출발 지연(분)</t>
+  </si>
+  <si>
+    <t>실제 도착 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>예정 도착 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>도착 지연(분)</t>
+  </si>
+  <si>
+    <t>항공편 번호</t>
+  </si>
+  <si>
+    <t>항공기 꼬리 번호</t>
+  </si>
+  <si>
+    <t>출발 공항 FAA 코드</t>
+  </si>
+  <si>
+    <t>도착 공항 FAA 코드</t>
+  </si>
+  <si>
+    <t>실제 비행 시간(분)</t>
+  </si>
+  <si>
+    <t>거리(마일)</t>
+  </si>
+  <si>
+    <t>예정 출발 시각 시(hour)</t>
+  </si>
+  <si>
+    <t>예정 출발 시각 분(minute)</t>
+  </si>
+  <si>
+    <t>예정 출발 날짜 및 시간 (시 단위)</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1, 6, 12</t>
+  </si>
+  <si>
+    <t>1, 15, 31</t>
+  </si>
+  <si>
+    <t>517.0, 533.0, 542.0</t>
+  </si>
+  <si>
+    <t>500, 505, 510</t>
+  </si>
+  <si>
+    <t>-5.0, 0.0, 10.0</t>
+  </si>
+  <si>
+    <t>845.0, 1312.0, 2203.0</t>
+  </si>
+  <si>
+    <t>845, 1315, 2210</t>
+  </si>
+  <si>
+    <t>-3.0, 0.0, 15.0</t>
+  </si>
+  <si>
+    <t>'AA', 'DL', 'UA'</t>
+  </si>
+  <si>
+    <t>1, 8, 215</t>
+  </si>
+  <si>
+    <t>'N10156', 'N102UW', 'N103US'</t>
+  </si>
+  <si>
+    <t>'JFK', 'LGA', 'EWR'</t>
+  </si>
+  <si>
+    <t>'LAX', 'ORD', 'MIA'</t>
+  </si>
+  <si>
+    <t>30.0, 150.0, 360.0</t>
+  </si>
+  <si>
+    <t>108, 1432, 2475</t>
+  </si>
+  <si>
+    <t>5, 12, 17</t>
+  </si>
+  <si>
+    <t>0, 15, 30</t>
+  </si>
+  <si>
+    <t>2013-01-01 05:00, 2013-06-15 14:00, 2013-12-31 23:00</t>
   </si>
 </sst>
 </file>
@@ -1248,14 +1395,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1268,7 +1415,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1620,15 +1767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
@@ -1658,6 +1803,443 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>336776</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>336776</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>336776</v>
+      </c>
+      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>336776</v>
+      </c>
+      <c r="E5">
+        <v>1318</v>
+      </c>
+      <c r="F5">
+        <v>8255</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>336776</v>
+      </c>
+      <c r="E6">
+        <v>1021</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>336776</v>
+      </c>
+      <c r="E7">
+        <v>527</v>
+      </c>
+      <c r="F7">
+        <v>8255</v>
+      </c>
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>336776</v>
+      </c>
+      <c r="E8">
+        <v>1411</v>
+      </c>
+      <c r="F8">
+        <v>8713</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>336776</v>
+      </c>
+      <c r="E9">
+        <v>1163</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>336776</v>
+      </c>
+      <c r="E10">
+        <v>577</v>
+      </c>
+      <c r="F10">
+        <v>9430</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>336776</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>336776</v>
+      </c>
+      <c r="E12">
+        <v>3844</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>336776</v>
+      </c>
+      <c r="E13">
+        <v>4043</v>
+      </c>
+      <c r="F13">
+        <v>2512</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>336776</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>336776</v>
+      </c>
+      <c r="E15">
+        <v>105</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>336776</v>
+      </c>
+      <c r="E16">
+        <v>509</v>
+      </c>
+      <c r="F16">
+        <v>9430</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>336776</v>
+      </c>
+      <c r="E17">
+        <v>214</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>336776</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>336776</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>336776</v>
+      </c>
+      <c r="E20">
+        <v>6936</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1674,14 +2256,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="38.625" customWidth="1"/>
-    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
@@ -1713,7 +2295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66">
+    <row r="2" spans="1:9" ht="58">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +2322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="79">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +2346,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="45.75">
+    <row r="4" spans="1:9" ht="41.5">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +2370,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="45.75">
+    <row r="5" spans="1:9" ht="41.5">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +2394,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="27">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +2418,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="49.5">
+    <row r="7" spans="1:9" ht="43.5">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +2468,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="58.5">
+    <row r="9" spans="1:9" ht="79">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1927,11 +2509,11 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.08984375" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1964,7 +2546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="29">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -1993,7 +2575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -2019,7 +2601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="82.5">
+    <row r="4" spans="1:9" ht="72.5">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
@@ -2163,7 +2745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.25">
+    <row r="10" spans="1:9" ht="29">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2200,9 +2782,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2258,7 +2840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="198">
+    <row r="3" spans="1:9" ht="174">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2295,13 +2877,13 @@
       <selection activeCell="H10" activeCellId="1" sqref="F17 H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">

--- a/data/컬럼정의서2.xlsx
+++ b/data/컬럼정의서2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\flights-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\DS Projects\miniproject1-nycflights\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,7 +141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -160,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -203,7 +203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -246,7 +246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -270,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -289,7 +289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -313,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -332,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -351,7 +351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -375,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -394,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -413,7 +413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -437,7 +437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -456,7 +456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -480,7 +480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -499,7 +499,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -534,7 +534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -553,7 +553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -591,7 +591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -607,7 +607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -626,7 +626,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -645,7 +645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -675,7 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -694,7 +694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -713,7 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -732,7 +732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -751,7 +751,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -847,7 +847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -866,7 +866,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -904,7 +904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -923,7 +923,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -961,7 +961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -980,7 +980,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -999,7 +999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1083,308 +1083,363 @@
     <t>기온(°F)</t>
   </si>
   <si>
+    <t>dewp</t>
+  </si>
+  <si>
+    <t>이슬점(°F)</t>
+  </si>
+  <si>
+    <t>humid</t>
+  </si>
+  <si>
+    <t>상대 습도(%)</t>
+  </si>
+  <si>
+    <t>상대 습도 (0~100%)</t>
+  </si>
+  <si>
+    <t>wind_dir</t>
+  </si>
+  <si>
+    <t>바람이 불어오는 방향 (0~360도)</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
+  </si>
+  <si>
+    <t>바람 속도 (mph: 마일/시간)</t>
+  </si>
+  <si>
+    <t>wind_gust</t>
+  </si>
+  <si>
+    <t>순간 돌풍의 최대 속도</t>
+  </si>
+  <si>
+    <t>precip</t>
+  </si>
+  <si>
+    <t>시간당 강수량 (inches)</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>기압(mb)</t>
+  </si>
+  <si>
+    <t>visib</t>
+  </si>
+  <si>
+    <t>time_hour</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POSIXct 형식의 날짜 + 시간 (예: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>2013-01-01 00:00:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>시정 거리(마일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍향(도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍속(mph)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌풍 속도(mph)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강수량(inch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관측 시각 (시간 단위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int64  </t>
+  </si>
+  <si>
+    <t>기상 관측소 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기상 관측소 이름. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>flights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 데이터와 병합을 쉽게 하기 위해 사용됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시 거리 (miles)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측값이 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_time</t>
+  </si>
+  <si>
+    <t>sched_dep_time</t>
+  </si>
+  <si>
+    <t>dep_delay</t>
+  </si>
+  <si>
+    <t>arr_time</t>
+  </si>
+  <si>
+    <t>sched_arr_time</t>
+  </si>
+  <si>
+    <t>arr_delay</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>tailnum</t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>air_time</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>출발 연도</t>
+  </si>
+  <si>
+    <t>출발 월</t>
+  </si>
+  <si>
+    <t>출발 일</t>
+  </si>
+  <si>
+    <t>실제 출발 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>예정 출발 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>출발 지연(분)</t>
+  </si>
+  <si>
+    <t>실제 도착 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>예정 도착 시각 (HHMM/HMM)</t>
+  </si>
+  <si>
+    <t>도착 지연(분)</t>
+  </si>
+  <si>
+    <t>항공편 번호</t>
+  </si>
+  <si>
+    <t>항공기 꼬리 번호</t>
+  </si>
+  <si>
+    <t>출발 공항 FAA 코드</t>
+  </si>
+  <si>
+    <t>도착 공항 FAA 코드</t>
+  </si>
+  <si>
+    <t>실제 비행 시간(분)</t>
+  </si>
+  <si>
+    <t>거리(마일)</t>
+  </si>
+  <si>
+    <t>예정 출발 시각 시(hour)</t>
+  </si>
+  <si>
+    <t>예정 출발 시각 분(minute)</t>
+  </si>
+  <si>
+    <t>예정 출발 날짜 및 시간 (시 단위)</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1, 6, 12</t>
+  </si>
+  <si>
+    <t>1, 15, 31</t>
+  </si>
+  <si>
+    <t>517.0, 533.0, 542.0</t>
+  </si>
+  <si>
+    <t>500, 505, 510</t>
+  </si>
+  <si>
+    <t>-5.0, 0.0, 10.0</t>
+  </si>
+  <si>
+    <t>845.0, 1312.0, 2203.0</t>
+  </si>
+  <si>
+    <t>845, 1315, 2210</t>
+  </si>
+  <si>
+    <t>-3.0, 0.0, 15.0</t>
+  </si>
+  <si>
+    <t>'AA', 'DL', 'UA'</t>
+  </si>
+  <si>
+    <t>1, 8, 215</t>
+  </si>
+  <si>
+    <t>'N10156', 'N102UW', 'N103US'</t>
+  </si>
+  <si>
+    <t>'LAX', 'ORD', 'MIA'</t>
+  </si>
+  <si>
+    <t>30.0, 150.0, 360.0</t>
+  </si>
+  <si>
+    <t>108, 1432, 2475</t>
+  </si>
+  <si>
+    <t>5, 12, 17</t>
+  </si>
+  <si>
+    <t>0, 15, 30</t>
+  </si>
+  <si>
+    <t>2013-01-01 05:00, 2013-06-15 14:00, 2013-12-31 23:00</t>
+  </si>
+  <si>
+    <t>해수면 기준 기압 (millibars)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>화씨(Fahrenheit) 단위의 온도</t>
-  </si>
-  <si>
-    <t>dewp</t>
-  </si>
-  <si>
-    <t>이슬점(°F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화씨 단위의 이슬점</t>
-  </si>
-  <si>
-    <t>humid</t>
-  </si>
-  <si>
-    <t>상대 습도(%)</t>
-  </si>
-  <si>
-    <t>상대 습도 (0~100%)</t>
-  </si>
-  <si>
-    <t>wind_dir</t>
-  </si>
-  <si>
-    <t>바람이 불어오는 방향 (0~360도)</t>
-  </si>
-  <si>
-    <t>wind_speed</t>
-  </si>
-  <si>
-    <t>바람 속도 (mph: 마일/시간)</t>
-  </si>
-  <si>
-    <t>wind_gust</t>
-  </si>
-  <si>
-    <t>순간 돌풍의 최대 속도</t>
-  </si>
-  <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>시간당 강수량 (inches)</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>기압(mb)</t>
-  </si>
-  <si>
-    <t>해수면 기준 기압 (millibars)</t>
-  </si>
-  <si>
-    <t>visib</t>
-  </si>
-  <si>
-    <t>time_hour</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">POSIXct 형식의 날짜 + 시간 (예: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>2013-01-01 00:00:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>시정 거리(마일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍향(도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍속(mph)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌풍 속도(mph)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강수량(inch)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관측 시각 (시간 단위)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">object </t>
-  </si>
-  <si>
-    <t xml:space="preserve">int64  </t>
-  </si>
-  <si>
-    <t>기상 관측소 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">기상 관측소 이름. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>flights</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 데이터와 병합을 쉽게 하기 위해 사용됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가시 거리 (miles)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결측값이 많음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dep_time</t>
-  </si>
-  <si>
-    <t>sched_dep_time</t>
-  </si>
-  <si>
-    <t>dep_delay</t>
-  </si>
-  <si>
-    <t>arr_time</t>
-  </si>
-  <si>
-    <t>sched_arr_time</t>
-  </si>
-  <si>
-    <t>arr_delay</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>tailnum</t>
-  </si>
-  <si>
-    <t>dest</t>
-  </si>
-  <si>
-    <t>air_time</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>출발 연도</t>
-  </si>
-  <si>
-    <t>출발 월</t>
-  </si>
-  <si>
-    <t>출발 일</t>
-  </si>
-  <si>
-    <t>실제 출발 시각 (HHMM/HMM)</t>
-  </si>
-  <si>
-    <t>예정 출발 시각 (HHMM/HMM)</t>
-  </si>
-  <si>
-    <t>출발 지연(분)</t>
-  </si>
-  <si>
-    <t>실제 도착 시각 (HHMM/HMM)</t>
-  </si>
-  <si>
-    <t>예정 도착 시각 (HHMM/HMM)</t>
-  </si>
-  <si>
-    <t>도착 지연(분)</t>
-  </si>
-  <si>
-    <t>항공편 번호</t>
-  </si>
-  <si>
-    <t>항공기 꼬리 번호</t>
-  </si>
-  <si>
-    <t>출발 공항 FAA 코드</t>
-  </si>
-  <si>
-    <t>도착 공항 FAA 코드</t>
-  </si>
-  <si>
-    <t>실제 비행 시간(분)</t>
-  </si>
-  <si>
-    <t>거리(마일)</t>
-  </si>
-  <si>
-    <t>예정 출발 시각 시(hour)</t>
-  </si>
-  <si>
-    <t>예정 출발 시각 분(minute)</t>
-  </si>
-  <si>
-    <t>예정 출발 날짜 및 시간 (시 단위)</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>1, 6, 12</t>
-  </si>
-  <si>
-    <t>1, 15, 31</t>
-  </si>
-  <si>
-    <t>517.0, 533.0, 542.0</t>
-  </si>
-  <si>
-    <t>500, 505, 510</t>
-  </si>
-  <si>
-    <t>-5.0, 0.0, 10.0</t>
-  </si>
-  <si>
-    <t>845.0, 1312.0, 2203.0</t>
-  </si>
-  <si>
-    <t>845, 1315, 2210</t>
-  </si>
-  <si>
-    <t>-3.0, 0.0, 15.0</t>
-  </si>
-  <si>
-    <t>'AA', 'DL', 'UA'</t>
-  </si>
-  <si>
-    <t>1, 8, 215</t>
-  </si>
-  <si>
-    <t>'N10156', 'N102UW', 'N103US'</t>
-  </si>
-  <si>
-    <t>'JFK', 'LGA', 'EWR'</t>
-  </si>
-  <si>
-    <t>'LAX', 'ORD', 'MIA'</t>
-  </si>
-  <si>
-    <t>30.0, 150.0, 360.0</t>
-  </si>
-  <si>
-    <t>108, 1432, 2475</t>
-  </si>
-  <si>
-    <t>5, 12, 17</t>
-  </si>
-  <si>
-    <t>0, 15, 30</t>
-  </si>
-  <si>
-    <t>2013-01-01 05:00, 2013-06-15 14:00, 2013-12-31 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JFK', 'LGA', 'EWR'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWR', 'JFK', 'LGA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.02, 39.92, 37.94, 41. , 39.2</t>
+  </si>
+  <si>
+    <t>33.98, 33.08, 33.80, 12.92, 10.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.4, 65.07, 70.28, 46.74, 46.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270., 250., 240., 260., 330.</t>
+  </si>
+  <si>
+    <t>10.35702,    8.05546,   11.5078 ,   12.65858,   14.96014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.71404, 25.31716, 26.46794, 24.16638, 23.0156</t>
+  </si>
+  <si>
+    <t>0.  , 0.05, 0.06, 0.19, 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012. , 1012.3, 1012.5, 1012.2, 1011.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.  ,  6.  ,  8.  ,  9.  ,  7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-01-01T06:00:00Z', '2013-01-01T07:00:00Z', '2013-01-01T08:00:00Z'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1395,14 +1450,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1415,7 +1470,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1449,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,6 +1541,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1769,11 +1827,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" activeCellId="1" sqref="F19 D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
@@ -1807,7 +1870,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -1825,12 +1888,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1848,12 +1911,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -1871,21 +1934,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5">
-        <v>336776</v>
+        <v>328521</v>
       </c>
       <c r="E5">
         <v>1318</v>
@@ -1894,15 +1957,15 @@
         <v>8255</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1917,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>336776</v>
+        <v>328521</v>
       </c>
       <c r="E7">
         <v>527</v>
@@ -1940,21 +2003,21 @@
         <v>8255</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8">
-        <v>336776</v>
+        <v>328063</v>
       </c>
       <c r="E8">
         <v>1411</v>
@@ -1963,15 +2026,15 @@
         <v>8713</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1986,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>336776</v>
+        <v>327346</v>
       </c>
       <c r="E10">
         <v>577</v>
@@ -2009,7 +2072,7 @@
         <v>9430</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2032,15 +2095,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -2055,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13">
-        <v>336776</v>
+        <v>334264</v>
       </c>
       <c r="E13">
         <v>4043</v>
@@ -2078,12 +2141,12 @@
         <v>2512</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -2100,16 +2163,16 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>166</v>
+      <c r="G14" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2124,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16">
-        <v>336776</v>
+        <v>327346</v>
       </c>
       <c r="E16">
         <v>509</v>
@@ -2147,15 +2210,15 @@
         <v>9430</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -2170,12 +2233,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -2193,15 +2256,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -2216,15 +2279,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -2239,12 +2302,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2253,17 +2317,17 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
-    <col min="9" max="9" width="31.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
@@ -2295,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="79">
+    <row r="3" spans="1:9" ht="46.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2410,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="41.5">
+    <row r="4" spans="1:9" ht="29.5">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2370,7 +2434,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="41.5">
+    <row r="5" spans="1:9" ht="29.5">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2394,7 +2458,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="27">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2418,7 +2482,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="43.5">
+    <row r="7" spans="1:9" ht="51">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2468,7 +2532,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="79">
+    <row r="9" spans="1:9" ht="46.5">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2506,14 +2570,14 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.08203125" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2546,7 +2610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -2575,7 +2639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -2601,7 +2665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72.5">
+    <row r="4" spans="1:9" ht="85">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
@@ -2745,7 +2809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29">
+    <row r="10" spans="1:9" ht="29.5">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2779,13 +2843,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
@@ -2840,7 +2905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="174">
+    <row r="3" spans="1:9" ht="170">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2874,16 +2939,17 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" activeCellId="1" sqref="F17 H10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
@@ -2917,13 +2983,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>26115</v>
@@ -2934,8 +3000,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2946,7 +3015,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>26115</v>
@@ -2956,6 +3025,9 @@
       </c>
       <c r="F3">
         <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2013</v>
       </c>
       <c r="H3" t="s">
         <v>79</v>
@@ -2969,7 +3041,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>26115</v>
@@ -2979,6 +3051,9 @@
       </c>
       <c r="F4">
         <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
       </c>
       <c r="H4" t="s">
         <v>82</v>
@@ -2992,7 +3067,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>26115</v>
@@ -3003,19 +3078,22 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
       <c r="H5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>26115</v>
@@ -3025,6 +3103,9 @@
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -3049,16 +3130,19 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>25</v>
@@ -3072,16 +3156,19 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>25</v>
@@ -3095,16 +3182,19 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>25</v>
@@ -3118,16 +3208,19 @@
       <c r="F10">
         <v>460</v>
       </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>25</v>
@@ -3141,16 +3234,19 @@
       <c r="F11">
         <v>4</v>
       </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>25</v>
@@ -3164,19 +3260,22 @@
       <c r="F12">
         <v>20778</v>
       </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>25</v>
@@ -3190,16 +3289,19 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>25</v>
@@ -3213,16 +3315,19 @@
       <c r="F14">
         <v>2729</v>
       </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>25</v>
@@ -3236,19 +3341,22 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>26115</v>
@@ -3259,12 +3367,16 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>